--- a/biology/Virologie/Nanovirus/Nanovirus.xlsx
+++ b/biology/Virologie/Nanovirus/Nanovirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nanovirus est un genre de virus de la famille des Nanoviridae qui comprend huit espèces. Ce sont des virus à ADN simple brin circulaire, à génome multipartite, classés dans le groupe II de la classification Baltimore, qui infectent des plantes (phytovirus), principalement des espèces de Fabaceae. 
 Les nanovirus sont présents uniquement dans l'Ancien Monde (Afrique, Asie, Australie). Ils sont transmis par diverses espèces de pucerons (genre Aphis), selon un mode circulant persistant, mais sans se multiplier dans l'organisme des insectes-vecteurs. Chez les plantes-hôtes ils sont restreints au tissu vasculaire (phloème) et  provoquent généralement des symptômes de nanisme et de rabougrissement, entraînant des pertes agricoles dans l'ensemble des régions tropicales. 
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Nanovirus », est dérivé du terme grec ancien « νάνος » (nanos), signifiant « nain », en référence à la petite taille des virions et des segment génomiques connus, et au rabougrissement que ces virus provoquent chez les plantes infectées[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Nanovirus », est dérivé du terme grec ancien « νάνος » (nanos), signifiant « nain », en référence à la petite taille des virions et des segment génomiques connus, et au rabougrissement que ces virus provoquent chez les plantes infectées.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces et non-classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (30 décembre 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (30 décembre 2020) :
 Black medic leaf roll virus (BMLRV), virus de l'enroulement de la luzerne lupuline
 Faba bean necrotic stunt virus (FBNSV), virus du rabougrissement nécrotique de la fève
 Faba bean necrotic yellows virus (FBNYV), virus de la jaunisse nécrosante de la fèverole
